--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit1</t>
+  </si>
+  <si>
+    <t>Robo1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit1</t>
-  </si>
-  <si>
-    <t>Robo1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H2">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I2">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J2">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N2">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q2">
-        <v>0.03852890148033333</v>
+        <v>0.1848962608884444</v>
       </c>
       <c r="R2">
-        <v>0.346760113323</v>
+        <v>1.664066347996</v>
       </c>
       <c r="S2">
-        <v>0.0007023128335031195</v>
+        <v>0.002853954998947159</v>
       </c>
       <c r="T2">
-        <v>0.0007023128335031195</v>
+        <v>0.002853954998947159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H3">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I3">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J3">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>22.077736</v>
       </c>
       <c r="N3">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q3">
-        <v>5.650568392594666</v>
+        <v>11.77923751751466</v>
       </c>
       <c r="R3">
-        <v>50.855115533352</v>
+        <v>106.013137657632</v>
       </c>
       <c r="S3">
-        <v>0.1029997364635997</v>
+        <v>0.1818177048868483</v>
       </c>
       <c r="T3">
-        <v>0.1029997364635997</v>
+        <v>0.1818177048868483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H4">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I4">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J4">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N4">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q4">
-        <v>3.632639902871778</v>
+        <v>8.584262447335556</v>
       </c>
       <c r="R4">
-        <v>32.693759125846</v>
+        <v>77.25836202602</v>
       </c>
       <c r="S4">
-        <v>0.06621651605054542</v>
+        <v>0.1325018613471529</v>
       </c>
       <c r="T4">
-        <v>0.06621651605054542</v>
+        <v>0.132501861347153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H5">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I5">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J5">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N5">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O5">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P5">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q5">
-        <v>0.004065601604999999</v>
+        <v>0.004421401782666667</v>
       </c>
       <c r="R5">
-        <v>0.036590414445</v>
+        <v>0.039792616044</v>
       </c>
       <c r="S5">
-        <v>7.410863205014682E-05</v>
+        <v>6.824627853133638E-05</v>
       </c>
       <c r="T5">
-        <v>7.410863205014683E-05</v>
+        <v>6.824627853133638E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H6">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I6">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J6">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N6">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q6">
-        <v>0.08031777518533333</v>
+        <v>0.1424781196222222</v>
       </c>
       <c r="R6">
-        <v>0.7228599766680001</v>
+        <v>1.2823030766</v>
       </c>
       <c r="S6">
-        <v>0.001464049119071587</v>
+        <v>0.002199212357148568</v>
       </c>
       <c r="T6">
-        <v>0.001464049119071587</v>
+        <v>0.002199212357148568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H7">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I7">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J7">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>22.077736</v>
       </c>
       <c r="N7">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q7">
-        <v>11.77923751751467</v>
+        <v>9.076893194133334</v>
       </c>
       <c r="R7">
-        <v>106.013137657632</v>
+        <v>81.69203874719999</v>
       </c>
       <c r="S7">
-        <v>0.2147143925620276</v>
+        <v>0.1401058333025775</v>
       </c>
       <c r="T7">
-        <v>0.2147143925620276</v>
+        <v>0.1401058333025775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H8">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I8">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J8">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N8">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q8">
-        <v>7.572641415615111</v>
+        <v>6.614896190777778</v>
       </c>
       <c r="R8">
-        <v>68.153772740536</v>
+        <v>59.534065717</v>
       </c>
       <c r="S8">
-        <v>0.1380356834834345</v>
+        <v>0.102103828170852</v>
       </c>
       <c r="T8">
-        <v>0.1380356834834345</v>
+        <v>0.1021038281708521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H9">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I9">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J9">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N9">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O9">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P9">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q9">
-        <v>0.008475198179999999</v>
+        <v>0.003407061933333334</v>
       </c>
       <c r="R9">
-        <v>0.07627678362</v>
+        <v>0.0306635574</v>
       </c>
       <c r="S9">
-        <v>0.0001544876759939429</v>
+        <v>5.258949742756503E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001544876759939429</v>
+        <v>5.258949742756503E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H10">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I10">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J10">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N10">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q10">
-        <v>0.06576552131300001</v>
+        <v>0.255450076492</v>
       </c>
       <c r="R10">
-        <v>0.5918896918170001</v>
+        <v>2.299050688428</v>
       </c>
       <c r="S10">
-        <v>0.001198787607368432</v>
+        <v>0.003942984132197457</v>
       </c>
       <c r="T10">
-        <v>0.001198787607368432</v>
+        <v>0.003942984132197456</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H11">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I11">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J11">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>22.077736</v>
       </c>
       <c r="N11">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q11">
-        <v>9.645034293112001</v>
+        <v>16.274029071264</v>
       </c>
       <c r="R11">
-        <v>86.80530863800801</v>
+        <v>146.466261641376</v>
       </c>
       <c r="S11">
-        <v>0.1758116920901022</v>
+        <v>0.2511967867698941</v>
       </c>
       <c r="T11">
-        <v>0.1758116920901022</v>
+        <v>0.251196786769894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H12">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I12">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J12">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N12">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q12">
-        <v>6.200603904492668</v>
+        <v>11.85989639954</v>
       </c>
       <c r="R12">
-        <v>55.80543514043401</v>
+        <v>106.73906759586</v>
       </c>
       <c r="S12">
-        <v>0.113025898229089</v>
+        <v>0.1830627101587753</v>
       </c>
       <c r="T12">
-        <v>0.113025898229089</v>
+        <v>0.1830627101587753</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H13">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I13">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J13">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,276 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N13">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O13">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P13">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q13">
-        <v>0.006939632295000001</v>
+        <v>0.006108546588000001</v>
       </c>
       <c r="R13">
-        <v>0.06245669065500001</v>
+        <v>0.054976919292</v>
       </c>
       <c r="S13">
-        <v>0.000126497061512615</v>
+        <v>9.428809964763201E-05</v>
       </c>
       <c r="T13">
-        <v>0.000126497061512615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.279251</v>
-      </c>
-      <c r="H14">
-        <v>0.837753</v>
-      </c>
-      <c r="I14">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J14">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.150539</v>
-      </c>
-      <c r="N14">
-        <v>0.451617</v>
-      </c>
-      <c r="O14">
-        <v>0.004131430002607021</v>
-      </c>
-      <c r="P14">
-        <v>0.004131430002607021</v>
-      </c>
-      <c r="Q14">
-        <v>0.042038166289</v>
-      </c>
-      <c r="R14">
-        <v>0.378343496601</v>
-      </c>
-      <c r="S14">
-        <v>0.0007662804426638817</v>
-      </c>
-      <c r="T14">
-        <v>0.0007662804426638815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.279251</v>
-      </c>
-      <c r="H15">
-        <v>0.837753</v>
-      </c>
-      <c r="I15">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J15">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>22.077736</v>
-      </c>
-      <c r="N15">
-        <v>66.233208</v>
-      </c>
-      <c r="O15">
-        <v>0.6059069138232426</v>
-      </c>
-      <c r="P15">
-        <v>0.6059069138232426</v>
-      </c>
-      <c r="Q15">
-        <v>6.165229855735999</v>
-      </c>
-      <c r="R15">
-        <v>55.487068701624</v>
-      </c>
-      <c r="S15">
-        <v>0.1123810927075131</v>
-      </c>
-      <c r="T15">
-        <v>0.1123810927075131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.279251</v>
-      </c>
-      <c r="H16">
-        <v>0.837753</v>
-      </c>
-      <c r="I16">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J16">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.19334466666667</v>
-      </c>
-      <c r="N16">
-        <v>42.580034</v>
-      </c>
-      <c r="O16">
-        <v>0.3895257042574284</v>
-      </c>
-      <c r="P16">
-        <v>0.3895257042574284</v>
-      </c>
-      <c r="Q16">
-        <v>3.963505691511334</v>
-      </c>
-      <c r="R16">
-        <v>35.671551223602</v>
-      </c>
-      <c r="S16">
-        <v>0.07224760649435945</v>
-      </c>
-      <c r="T16">
-        <v>0.07224760649435945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.279251</v>
-      </c>
-      <c r="H17">
-        <v>0.837753</v>
-      </c>
-      <c r="I17">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J17">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.015885</v>
-      </c>
-      <c r="N17">
-        <v>0.047655</v>
-      </c>
-      <c r="O17">
-        <v>0.0004359519167219957</v>
-      </c>
-      <c r="P17">
-        <v>0.0004359519167219958</v>
-      </c>
-      <c r="Q17">
-        <v>0.004435902134999999</v>
-      </c>
-      <c r="R17">
-        <v>0.039923119215</v>
-      </c>
-      <c r="S17">
-        <v>8.085854716529112E-05</v>
-      </c>
-      <c r="T17">
-        <v>8.085854716529111E-05</v>
+        <v>9.428809964763201E-05</v>
       </c>
     </row>
   </sheetData>
